--- a/data/strategies/招商场内策略结果.xlsx
+++ b/data/strategies/招商场内策略结果.xlsx
@@ -18,20 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+  <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF</t>
+  </si>
+  <si>
+    <t>华夏战略新兴成指ETF</t>
+  </si>
   <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
   </si>
   <si>
-    <t>华夏国证半导体芯片ETF</t>
-  </si>
-  <si>
-    <t>华夏战略新兴成指ETF</t>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
     <t>政策红利+新消费</t>
   </si>
   <si>
@@ -62,523 +62,526 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.04%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>22.27%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.01%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>19.63%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
+    <t>11.83%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>21.01%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>15.48%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>26.14%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.84%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>29.25%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
+  </si>
+  <si>
+    <t>场内权重</t>
+  </si>
+  <si>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
+  </si>
+  <si>
+    <t>场内基金</t>
+  </si>
+  <si>
+    <t>场内代码</t>
+  </si>
+  <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
+    <t>159995.OF</t>
+  </si>
+  <si>
+    <t>512770.OF</t>
+  </si>
+  <si>
+    <t>515790.OF</t>
+  </si>
+  <si>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>20.70%</t>
+  </si>
+  <si>
+    <t>6.51%</t>
+  </si>
+  <si>
+    <t>23.86%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>33.16%</t>
+  </si>
+  <si>
+    <t>18.30%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>13.55%</t>
+  </si>
+  <si>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>45.17%</t>
+  </si>
+  <si>
+    <t>25.76%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>34.23%</t>
+  </si>
+  <si>
+    <t>24.55%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>31.45%</t>
+  </si>
+  <si>
+    <t>36.12%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>440.47%</t>
+  </si>
+  <si>
+    <t>335.74%</t>
+  </si>
+  <si>
+    <t>319.41%</t>
+  </si>
+  <si>
+    <t>309.21%</t>
+  </si>
+  <si>
+    <t>284.00%</t>
+  </si>
+  <si>
+    <t>277.75%</t>
+  </si>
+  <si>
+    <t>272.33%</t>
+  </si>
+  <si>
+    <t>256.68%</t>
+  </si>
+  <si>
+    <t>238.52%</t>
+  </si>
+  <si>
+    <t>224.93%</t>
+  </si>
+  <si>
+    <t>220.90%</t>
+  </si>
+  <si>
+    <t>215.56%</t>
+  </si>
+  <si>
+    <t>173.21%</t>
+  </si>
+  <si>
+    <t>172.39%</t>
+  </si>
+  <si>
+    <t>159.56%</t>
+  </si>
+  <si>
+    <t>156.75%</t>
+  </si>
+  <si>
+    <t>149.67%</t>
+  </si>
+  <si>
+    <t>132.99%</t>
+  </si>
+  <si>
+    <t>123.95%</t>
+  </si>
+  <si>
+    <t>117.59%</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>证券经纪业务</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>饲料养殖</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>18.16%</t>
   </si>
   <si>
     <t>11.64%</t>
   </si>
   <si>
-    <t>20.91%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.32%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
-  </si>
-  <si>
-    <t>场内权重</t>
-  </si>
-  <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
-  </si>
-  <si>
-    <t>场内基金</t>
-  </si>
-  <si>
-    <t>场内代码</t>
-  </si>
-  <si>
-    <t>515790.OF</t>
-  </si>
-  <si>
-    <t>159995.OF</t>
-  </si>
-  <si>
-    <t>512770.OF</t>
-  </si>
-  <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
-    <t>14.72%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>5.20%</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>38.65%</t>
-  </si>
-  <si>
-    <t>26.63%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>22.77%</t>
-  </si>
-  <si>
-    <t>12.40%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>34.69%</t>
-  </si>
-  <si>
-    <t>38.12%</t>
-  </si>
-  <si>
-    <t>22.02%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>32.22%</t>
-  </si>
-  <si>
-    <t>24.36%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>35.81%</t>
-  </si>
-  <si>
-    <t>35.03%</t>
-  </si>
-  <si>
-    <t>31.75%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>3.43%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>2.16%</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>40.18%</t>
-  </si>
-  <si>
-    <t>21.84%</t>
-  </si>
-  <si>
-    <t>13.65%</t>
-  </si>
-  <si>
-    <t>8.71%</t>
-  </si>
-  <si>
-    <t>5.81%</t>
-  </si>
-  <si>
-    <t>3.93%</t>
-  </si>
-  <si>
-    <t>3.21%</t>
-  </si>
-  <si>
-    <t>2.66%</t>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>2.81%</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>1.18%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,7 +1008,7 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.053756818581735</v>
+        <v>1.039420956763494</v>
       </c>
       <c r="C3">
         <v>1.028039681888989</v>
@@ -1014,10 +1017,10 @@
         <v>1.030949689089881</v>
       </c>
       <c r="E3">
-        <v>1.039420956763494</v>
+        <v>1.053756818581735</v>
       </c>
       <c r="F3">
-        <v>1.037127718211637</v>
+        <v>1.039421456102556</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1031,7 +1034,7 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.055076544078832</v>
+        <v>1.092186751030582</v>
       </c>
       <c r="C4">
         <v>1.079855702221858</v>
@@ -1040,10 +1043,10 @@
         <v>1.059591106086301</v>
       </c>
       <c r="E4">
-        <v>1.092186751030582</v>
+        <v>1.055076544078832</v>
       </c>
       <c r="F4">
-        <v>1.073025174719689</v>
+        <v>1.067087541607409</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1057,7 +1060,7 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.053580855182122</v>
+        <v>1.100853225961078</v>
       </c>
       <c r="C5">
         <v>1.063786176928753</v>
@@ -1066,10 +1069,10 @@
         <v>1.068117580553985</v>
       </c>
       <c r="E5">
-        <v>1.100853225961078</v>
+        <v>1.053580855182122</v>
       </c>
       <c r="F5">
-        <v>1.07571276160882</v>
+        <v>1.068149182284187</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1083,7 +1086,7 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.095284180890375</v>
+        <v>1.115156744319816</v>
       </c>
       <c r="C6">
         <v>1.072886775436583</v>
@@ -1092,10 +1095,10 @@
         <v>1.098549086112681</v>
       </c>
       <c r="E6">
-        <v>1.115156744319816</v>
+        <v>1.095284180890375</v>
       </c>
       <c r="F6">
-        <v>1.099111986618307</v>
+        <v>1.095932376469596</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1109,7 +1112,7 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.071969030441668</v>
+        <v>1.084306394401304</v>
       </c>
       <c r="C7">
         <v>1.069935229974584</v>
@@ -1118,10 +1121,10 @@
         <v>1.0912003014886</v>
       </c>
       <c r="E7">
-        <v>1.084306394401304</v>
+        <v>1.071969030441668</v>
       </c>
       <c r="F7">
-        <v>1.082040933914431</v>
+        <v>1.08006695568089</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1135,7 +1138,7 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.02841808903748</v>
+        <v>1.04889272361231</v>
       </c>
       <c r="C8">
         <v>1.087808477494466</v>
@@ -1144,10 +1147,10 @@
         <v>1.082344073864707</v>
       </c>
       <c r="E8">
-        <v>1.04889272361231</v>
+        <v>1.02841808903748</v>
       </c>
       <c r="F8">
-        <v>1.063066659477846</v>
+        <v>1.059790717945874</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1161,7 +1164,7 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.064666549357733</v>
+        <v>1.072265362860704</v>
       </c>
       <c r="C9">
         <v>1.1151922603919</v>
@@ -1170,10 +1173,10 @@
         <v>1.115366497079329</v>
       </c>
       <c r="E9">
-        <v>1.072265362860704</v>
+        <v>1.064666549357733</v>
       </c>
       <c r="F9">
-        <v>1.092494511437649</v>
+        <v>1.091278701277173</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1187,7 +1190,7 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.056220306176315</v>
+        <v>1.060147636851692</v>
       </c>
       <c r="C10">
         <v>1.136590964991391</v>
@@ -1196,10 +1199,10 @@
         <v>1.10368381383079</v>
       </c>
       <c r="E10">
-        <v>1.060147636851692</v>
+        <v>1.056220306176315</v>
       </c>
       <c r="F10">
-        <v>1.086842294823729</v>
+        <v>1.086213921915669</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1213,7 +1216,7 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.028506070737287</v>
+        <v>1.033074489502445</v>
       </c>
       <c r="C11">
         <v>1.132819545789948</v>
@@ -1222,10 +1225,10 @@
         <v>1.075890333521764</v>
       </c>
       <c r="E11">
-        <v>1.033074489502445</v>
+        <v>1.028506070737287</v>
       </c>
       <c r="F11">
-        <v>1.063383746407619</v>
+        <v>1.062652799405194</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1239,7 +1242,7 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.02569065634348</v>
+        <v>1.012616240053686</v>
       </c>
       <c r="C12">
         <v>1.110436992703124</v>
@@ -1248,10 +1251,10 @@
         <v>1.074194460146976</v>
       </c>
       <c r="E12">
-        <v>1.012616240053686</v>
+        <v>1.02569065634348</v>
       </c>
       <c r="F12">
-        <v>1.051789231404141</v>
+        <v>1.053881138010508</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1265,7 +1268,7 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.045046630300897</v>
+        <v>1.010622183874988</v>
       </c>
       <c r="C13">
         <v>1.176026891858654</v>
@@ -1274,10 +1277,10 @@
         <v>1.093697003957038</v>
       </c>
       <c r="E13">
-        <v>1.010622183874988</v>
+        <v>1.045046630300897</v>
       </c>
       <c r="F13">
-        <v>1.072007830751692</v>
+        <v>1.077515742179838</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1291,7 +1294,7 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.016892486362836</v>
+        <v>0.9903556705972582</v>
       </c>
       <c r="C14">
         <v>1.157251783225383</v>
@@ -1300,10 +1303,10 @@
         <v>1.071320896928585</v>
       </c>
       <c r="E14">
-        <v>0.9903556705972582</v>
+        <v>1.016892486362836</v>
       </c>
       <c r="F14">
-        <v>1.049957793113526</v>
+        <v>1.054203683636018</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1317,7 +1320,7 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.051029385887735</v>
+        <v>0.9969322212635414</v>
       </c>
       <c r="C15">
         <v>1.167582192342379</v>
@@ -1326,10 +1329,10 @@
         <v>1.101799510081025</v>
       </c>
       <c r="E15">
-        <v>0.9969322212635414</v>
+        <v>1.051029385887735</v>
       </c>
       <c r="F15">
-        <v>1.069745439642827</v>
+        <v>1.078400985982698</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1343,7 +1346,7 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.095284180890375</v>
+        <v>1.018962707314735</v>
       </c>
       <c r="C16">
         <v>1.168320078707879</v>
@@ -1352,10 +1355,10 @@
         <v>1.130582249858677</v>
       </c>
       <c r="E16">
-        <v>1.018962707314735</v>
+        <v>1.095284180890375</v>
       </c>
       <c r="F16">
-        <v>1.094162559998929</v>
+        <v>1.106373995771031</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1369,7 +1372,7 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.131180714411402</v>
+        <v>1.017850637522769</v>
       </c>
       <c r="C17">
         <v>1.154054275641551</v>
@@ -1378,10 +1381,10 @@
         <v>1.158328622573959</v>
       </c>
       <c r="E17">
-        <v>1.017850637522769</v>
+        <v>1.131180714411402</v>
       </c>
       <c r="F17">
-        <v>1.106629104140922</v>
+        <v>1.124761916443104</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1395,7 +1398,7 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.131444659510822</v>
+        <v>1.056293739814016</v>
       </c>
       <c r="C18">
         <v>1.139214560957613</v>
@@ -1404,10 +1407,10 @@
         <v>1.157056717542868</v>
       </c>
       <c r="E18">
-        <v>1.056293739814016</v>
+        <v>1.131444659510822</v>
       </c>
       <c r="F18">
-        <v>1.116417718407406</v>
+        <v>1.128441865558894</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1421,7 +1424,7 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.11516804504663</v>
+        <v>1.047569744032212</v>
       </c>
       <c r="C19">
         <v>1.113634500286956</v>
@@ -1430,10 +1433,10 @@
         <v>1.120783870359902</v>
       </c>
       <c r="E19">
-        <v>1.047569744032212</v>
+        <v>1.11516804504663</v>
       </c>
       <c r="F19">
-        <v>1.094453125456107</v>
+        <v>1.105268853618414</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1447,7 +1450,7 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.159246876649657</v>
+        <v>1.038577317610967</v>
       </c>
       <c r="C20">
         <v>1.107731409362958</v>
@@ -1456,10 +1459,10 @@
         <v>1.137836819295271</v>
       </c>
       <c r="E20">
-        <v>1.038577317610967</v>
+        <v>1.159246876649657</v>
       </c>
       <c r="F20">
-        <v>1.103602973801203</v>
+        <v>1.122910103247393</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1473,7 +1476,7 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.100651064578567</v>
+        <v>1.019384526890998</v>
       </c>
       <c r="C21">
         <v>1.06075264409281</v>
@@ -1482,10 +1485,10 @@
         <v>1.090776333144903</v>
       </c>
       <c r="E21">
-        <v>1.019384526890998</v>
+        <v>1.100651064578567</v>
       </c>
       <c r="F21">
-        <v>1.063791714285982</v>
+        <v>1.076794360315993</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1499,7 +1502,7 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.077951786028506</v>
+        <v>1.017716422203049</v>
       </c>
       <c r="C22">
         <v>1.03976387636304</v>
@@ -1508,10 +1511,10 @@
         <v>1.083239118145845</v>
       </c>
       <c r="E22">
-        <v>1.017716422203049</v>
+        <v>1.077951786028506</v>
       </c>
       <c r="F22">
-        <v>1.053326990921698</v>
+        <v>1.062964649133771</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1525,7 +1528,7 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.048917825092381</v>
+        <v>1.020975937110536</v>
       </c>
       <c r="C23">
         <v>1.045502992539149</v>
@@ -1534,10 +1537,10 @@
         <v>1.0944036178632</v>
       </c>
       <c r="E23">
-        <v>1.020975937110536</v>
+        <v>1.048917825092381</v>
       </c>
       <c r="F23">
-        <v>1.054126792138693</v>
+        <v>1.058597494215788</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1551,7 +1554,7 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.067569945451346</v>
+        <v>1.052324801073723</v>
       </c>
       <c r="C24">
         <v>1.054603591046979</v>
@@ -1560,10 +1563,10 @@
         <v>1.118711136235161</v>
       </c>
       <c r="E24">
-        <v>1.052324801073723</v>
+        <v>1.067569945451346</v>
       </c>
       <c r="F24">
-        <v>1.077211360516647</v>
+        <v>1.079650583617067</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1577,7 +1580,7 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.064666549357733</v>
+        <v>1.058441184929537</v>
       </c>
       <c r="C25">
         <v>1.015741575797327</v>
@@ -1586,10 +1589,10 @@
         <v>1.114188807235727</v>
       </c>
       <c r="E25">
-        <v>1.058441184929537</v>
+        <v>1.064666549357733</v>
       </c>
       <c r="F25">
-        <v>1.070637278690898</v>
+        <v>1.071633336999409</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1603,7 +1606,7 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.060355446067218</v>
+        <v>1.061355574729173</v>
       </c>
       <c r="C26">
         <v>1.014101828318439</v>
@@ -1612,10 +1615,10 @@
         <v>1.106698699830413</v>
       </c>
       <c r="E26">
-        <v>1.061355574729173</v>
+        <v>1.060355446067218</v>
       </c>
       <c r="F26">
-        <v>1.068115647250225</v>
+        <v>1.067955626664312</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1629,7 +1632,7 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>1.05806792187225</v>
+        <v>1.071134119451635</v>
       </c>
       <c r="C27">
         <v>0.9888497171435598</v>
@@ -1638,10 +1641,10 @@
         <v>1.105332579611834</v>
       </c>
       <c r="E27">
-        <v>1.071134119451635</v>
+        <v>1.05806792187225</v>
       </c>
       <c r="F27">
-        <v>1.066210009323632</v>
+        <v>1.064119417710931</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1655,7 +1658,7 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.059827555868379</v>
+        <v>1.092436008052919</v>
       </c>
       <c r="C28">
         <v>1.017709272771993</v>
@@ -1664,10 +1667,10 @@
         <v>1.133550028264556</v>
       </c>
       <c r="E28">
-        <v>1.092436008052919</v>
+        <v>1.059827555868379</v>
       </c>
       <c r="F28">
-        <v>1.08775665285363</v>
+        <v>1.082539300504104</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1681,7 +1684,7 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.096427942987859</v>
+        <v>1.118895599654875</v>
       </c>
       <c r="C29">
         <v>1.032057063212265</v>
@@ -1690,10 +1693,10 @@
         <v>1.16624269832297</v>
       </c>
       <c r="E29">
-        <v>1.118895599654875</v>
+        <v>1.096427942987859</v>
       </c>
       <c r="F29">
-        <v>1.11593808938671</v>
+        <v>1.112343264319987</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1707,7 +1710,7 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.123174379729016</v>
+        <v>1.157530438117151</v>
       </c>
       <c r="C30">
         <v>1.040091825858818</v>
@@ -1716,10 +1719,10 @@
         <v>1.191963444507255</v>
       </c>
       <c r="E30">
-        <v>1.157530438117151</v>
+        <v>1.123174379729016</v>
       </c>
       <c r="F30">
-        <v>1.143088236215986</v>
+        <v>1.137591266873884</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1733,7 +1736,7 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.114464191448179</v>
+        <v>1.122423545201802</v>
       </c>
       <c r="C31">
         <v>1.065507911781586</v>
@@ -1742,10 +1745,10 @@
         <v>1.162850951573394</v>
       </c>
       <c r="E31">
-        <v>1.122423545201802</v>
+        <v>1.114464191448179</v>
       </c>
       <c r="F31">
-        <v>1.124735841484875</v>
+        <v>1.123462344884295</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1759,7 +1762,7 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.093612528594053</v>
+        <v>1.140101620170645</v>
       </c>
       <c r="C32">
         <v>1.060342707223088</v>
@@ -1768,10 +1771,10 @@
         <v>1.14424345204447</v>
       </c>
       <c r="E32">
-        <v>1.140101620170645</v>
+        <v>1.093612528594053</v>
       </c>
       <c r="F32">
-        <v>1.120006263919902</v>
+        <v>1.112568009267647</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1785,7 +1788,7 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.058683793770896</v>
+        <v>1.086760617390471</v>
       </c>
       <c r="C33">
         <v>1.033122899073543</v>
@@ -1794,10 +1797,10 @@
         <v>1.09200113058225</v>
       </c>
       <c r="E33">
-        <v>1.086760617390471</v>
+        <v>1.058683793770896</v>
       </c>
       <c r="F33">
-        <v>1.074598514614552</v>
+        <v>1.07010622283542</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1811,7 +1814,7 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.04944571529122</v>
+        <v>1.075927523727351</v>
       </c>
       <c r="C34">
         <v>1.021480691973436</v>
@@ -1820,10 +1823,10 @@
         <v>1.086489542114189</v>
       </c>
       <c r="E34">
-        <v>1.075927523727351</v>
+        <v>1.04944571529122</v>
       </c>
       <c r="F34">
-        <v>1.0656551209627</v>
+        <v>1.061418031612919</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1837,7 +1840,7 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.015396797466127</v>
+        <v>1.036755823986195</v>
       </c>
       <c r="C35">
         <v>1.029597441993933</v>
@@ -1846,10 +1849,10 @@
         <v>1.049321650650085</v>
       </c>
       <c r="E35">
-        <v>1.036755823986195</v>
+        <v>1.015396797466127</v>
       </c>
       <c r="F35">
-        <v>1.036054587338183</v>
+        <v>1.032637143094972</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1863,7 +1866,7 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>1.010909730775999</v>
+        <v>1.026095292877001</v>
       </c>
       <c r="C36">
         <v>1.02098876772977</v>
@@ -1872,10 +1875,10 @@
         <v>1.045835688713021</v>
       </c>
       <c r="E36">
-        <v>1.026095292877001</v>
+        <v>1.010909730775999</v>
       </c>
       <c r="F36">
-        <v>1.029159968670688</v>
+        <v>1.026730278734528</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1889,7 +1892,7 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.004487066690128</v>
+        <v>0.9980251174384047</v>
       </c>
       <c r="C37">
         <v>1.005985078297942</v>
@@ -1898,10 +1901,10 @@
         <v>1.024731486715659</v>
       </c>
       <c r="E37">
-        <v>0.9980251174384047</v>
+        <v>1.004487066690128</v>
       </c>
       <c r="F37">
-        <v>1.009289944018813</v>
+        <v>1.010323855899089</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1915,7 +1918,7 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.029737814534577</v>
+        <v>1.009395072380405</v>
       </c>
       <c r="C38">
         <v>1.043125358694761</v>
@@ -1924,10 +1927,10 @@
         <v>1.055210099868099</v>
       </c>
       <c r="E38">
-        <v>1.009395072380405</v>
+        <v>1.029737814534577</v>
       </c>
       <c r="F38">
-        <v>1.033706446290994</v>
+        <v>1.036961285035661</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1941,7 +1944,7 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>1.020675699454513</v>
+        <v>0.9887067395264117</v>
       </c>
       <c r="C39">
         <v>1.054111666803312</v>
@@ -1950,10 +1953,10 @@
         <v>1.044469568494441</v>
       </c>
       <c r="E39">
-        <v>0.9887067395264117</v>
+        <v>1.020675699454513</v>
       </c>
       <c r="F39">
-        <v>1.023662033910712</v>
+        <v>1.028777067499208</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1967,7 +1970,7 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>1.014868907267288</v>
+        <v>1.001974882561595</v>
       </c>
       <c r="C40">
         <v>1.05517750266459</v>
@@ -1976,10 +1979,10 @@
         <v>1.053561334087055</v>
       </c>
       <c r="E40">
-        <v>1.001974882561595</v>
+        <v>1.014868907267288</v>
       </c>
       <c r="F40">
-        <v>1.030234841182474</v>
+        <v>1.032297885135385</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1993,7 +1996,7 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9515220834066513</v>
+        <v>0.9587958968459401</v>
       </c>
       <c r="C41">
         <v>1.017791260145938</v>
@@ -2002,10 +2005,10 @@
         <v>0.9984925570001886</v>
       </c>
       <c r="E41">
-        <v>0.9587958968459401</v>
+        <v>0.9515220834066513</v>
       </c>
       <c r="F41">
-        <v>0.9806884581731626</v>
+        <v>0.9795246480228764</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2019,7 +2022,7 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9544254795002639</v>
+        <v>0.9585849870578086</v>
       </c>
       <c r="C42">
         <v>1.008936623759941</v>
@@ -2028,10 +2031,10 @@
         <v>1.000423968343697</v>
       </c>
       <c r="E42">
-        <v>0.9585849870578086</v>
+        <v>0.9544254795002639</v>
       </c>
       <c r="F42">
-        <v>0.9802445128367316</v>
+        <v>0.9795789916275246</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2045,7 +2048,7 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.902692240014077</v>
+        <v>0.908407631099607</v>
       </c>
       <c r="C43">
         <v>0.9645814544560138</v>
@@ -2054,10 +2057,10 @@
         <v>0.9465328811004335</v>
       </c>
       <c r="E43">
-        <v>0.908407631099607</v>
+        <v>0.902692240014077</v>
       </c>
       <c r="F43">
-        <v>0.9295668970859289</v>
+        <v>0.928652434512244</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2071,7 +2074,7 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.872514516980468</v>
+        <v>0.8819863867318569</v>
       </c>
       <c r="C44">
         <v>0.9153070427154218</v>
@@ -2080,10 +2083,10 @@
         <v>0.9138873186357641</v>
       </c>
       <c r="E44">
-        <v>0.8819863867318569</v>
+        <v>0.872514516980468</v>
       </c>
       <c r="F44">
-        <v>0.8965679879196162</v>
+        <v>0.895052488759394</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2097,7 +2100,7 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.8790251627661446</v>
+        <v>0.8959256063656409</v>
       </c>
       <c r="C45">
         <v>0.9161269164548659</v>
@@ -2106,10 +2109,10 @@
         <v>0.9316939890710383</v>
       </c>
       <c r="E45">
-        <v>0.8959256063656409</v>
+        <v>0.8790251627661446</v>
       </c>
       <c r="F45">
-        <v>0.9082903199616759</v>
+        <v>0.9055862489857566</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2123,7 +2126,7 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.9113144465951082</v>
+        <v>0.9207554405138531</v>
       </c>
       <c r="C46">
         <v>0.9453144215790769</v>
@@ -2132,10 +2135,10 @@
         <v>0.9553420011305823</v>
       </c>
       <c r="E46">
-        <v>0.9207554405138531</v>
+        <v>0.9113144465951082</v>
       </c>
       <c r="F46">
-        <v>0.9347390633322752</v>
+        <v>0.933228504305276</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2149,7 +2152,7 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.9279429878585254</v>
+        <v>0.919892627744224</v>
       </c>
       <c r="C47">
         <v>0.9303107321472494</v>
@@ -2158,10 +2161,10 @@
         <v>0.9566610137554176</v>
       </c>
       <c r="E47">
-        <v>0.919892627744224</v>
+        <v>0.9279429878585254</v>
       </c>
       <c r="F47">
-        <v>0.9351658340958635</v>
+        <v>0.9364538917141516</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2175,7 +2178,7 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.891870490937885</v>
+        <v>0.885859457386636</v>
       </c>
       <c r="C48">
         <v>0.8900549315405427</v>
@@ -2184,10 +2187,10 @@
         <v>0.9098831731675147</v>
       </c>
       <c r="E48">
-        <v>0.885859457386636</v>
+        <v>0.891870490937885</v>
       </c>
       <c r="F48">
-        <v>0.8955223899042024</v>
+        <v>0.8964841552724023</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2201,7 +2204,7 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.8978532465247228</v>
+        <v>0.9008340523439747</v>
       </c>
       <c r="C49">
         <v>0.8844797901123227</v>
@@ -2210,10 +2213,10 @@
         <v>0.915488976823064</v>
       </c>
       <c r="E49">
-        <v>0.9008340523439747</v>
+        <v>0.8978532465247228</v>
       </c>
       <c r="F49">
-        <v>0.9023832158534205</v>
+        <v>0.9019062869223402</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2227,7 +2230,7 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.9011965511173675</v>
+        <v>0.9171316268814111</v>
       </c>
       <c r="C50">
         <v>0.9112076740182011</v>
@@ -2236,10 +2239,10 @@
         <v>0.9293857169775769</v>
       </c>
       <c r="E50">
-        <v>0.9171316268814111</v>
+        <v>0.9011965511173675</v>
       </c>
       <c r="F50">
-        <v>0.9174594417465127</v>
+        <v>0.9149098296242658</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2253,7 +2256,7 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.9162414217842689</v>
+        <v>0.9340044099319337</v>
       </c>
       <c r="C51">
         <v>0.9121095351315898</v>
@@ -2262,10 +2265,10 @@
         <v>0.9435651026945545</v>
       </c>
       <c r="E51">
-        <v>0.9340044099319337</v>
+        <v>0.9162414217842689</v>
       </c>
       <c r="F51">
-        <v>0.9304176018424372</v>
+        <v>0.9275755237388108</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2279,7 +2282,7 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.8931022347351749</v>
+        <v>0.9085034991851213</v>
       </c>
       <c r="C52">
         <v>0.9044847093547593</v>
@@ -2288,10 +2291,10 @@
         <v>0.912992274354626</v>
       </c>
       <c r="E52">
-        <v>0.9085034991851213</v>
+        <v>0.8931022347351749</v>
       </c>
       <c r="F52">
-        <v>0.9066833857634056</v>
+        <v>0.9042191834514141</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2305,7 +2308,7 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.9136019707900757</v>
+        <v>0.9120506183491517</v>
       </c>
       <c r="C53">
         <v>0.9064524063294251</v>
@@ -2314,10 +2317,10 @@
         <v>0.9165724514791785</v>
       </c>
       <c r="E53">
-        <v>0.9120506183491517</v>
+        <v>0.9136019707900757</v>
       </c>
       <c r="F53">
-        <v>0.9128548571536641</v>
+        <v>0.9131030735442121</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2331,7 +2334,7 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.8989970086222066</v>
+        <v>0.9101716038730707</v>
       </c>
       <c r="C54">
         <v>0.9062884315815364</v>
@@ -2340,10 +2343,10 @@
         <v>0.9052195213868476</v>
       </c>
       <c r="E54">
-        <v>0.9101716038730707</v>
+        <v>0.8989970086222066</v>
       </c>
       <c r="F54">
-        <v>0.9059775961704094</v>
+        <v>0.9041896609302711</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2357,7 +2360,7 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.8793770895653704</v>
+        <v>0.9046879493816509</v>
       </c>
       <c r="C55">
         <v>0.8854636385996557</v>
@@ -2366,10 +2369,10 @@
         <v>0.8876483889202941</v>
       </c>
       <c r="E55">
-        <v>0.9046879493816509</v>
+        <v>0.8793770895653704</v>
       </c>
       <c r="F55">
-        <v>0.8914939154276964</v>
+        <v>0.8874441778570914</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2383,7 +2386,7 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.8773535104698222</v>
+        <v>0.903115712779216</v>
       </c>
       <c r="C56">
         <v>0.8933344264983192</v>
@@ -2392,10 +2395,10 @@
         <v>0.897776521575278</v>
       </c>
       <c r="E56">
-        <v>0.903115712779216</v>
+        <v>0.8773535104698222</v>
       </c>
       <c r="F56">
-        <v>0.8953113866215672</v>
+        <v>0.8911894342520641</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2409,7 +2412,7 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.909466830899173</v>
+        <v>0.92347809414246</v>
       </c>
       <c r="C57">
         <v>0.9111256866442567</v>
@@ -2418,10 +2421,10 @@
         <v>0.9337196156020351</v>
       </c>
       <c r="E57">
-        <v>0.92347809414246</v>
+        <v>0.909466830899173</v>
       </c>
       <c r="F57">
-        <v>0.9223759721980664</v>
+        <v>0.9201341700791406</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2435,7 +2438,7 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.9016364596163997</v>
+        <v>0.930955804812578</v>
       </c>
       <c r="C58">
         <v>0.9156349922111995</v>
@@ -2444,10 +2447,10 @@
         <v>0.9327774637271529</v>
       </c>
       <c r="E58">
-        <v>0.930955804812578</v>
+        <v>0.9016364596163997</v>
       </c>
       <c r="F58">
-        <v>0.923968125428803</v>
+        <v>0.9192770301974146</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2461,7 +2464,7 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.9294386767552348</v>
+        <v>0.9403700508100853</v>
       </c>
       <c r="C59">
         <v>0.9175207018119209</v>
@@ -2470,10 +2473,10 @@
         <v>0.9515733936310534</v>
       </c>
       <c r="E59">
-        <v>0.9403700508100853</v>
+        <v>0.9294386767552348</v>
       </c>
       <c r="F59">
-        <v>0.9383244310219923</v>
+        <v>0.9365754111732163</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2487,7 +2490,7 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.9236318845680098</v>
+        <v>0.9306682005560351</v>
       </c>
       <c r="C60">
         <v>0.9153070427154218</v>
@@ -2496,10 +2499,10 @@
         <v>0.9414923685698136</v>
       </c>
       <c r="E60">
-        <v>0.9306682005560351</v>
+        <v>0.9236318845680098</v>
       </c>
       <c r="F60">
-        <v>0.9304326054497134</v>
+        <v>0.9293067948916295</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2513,7 +2516,7 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.9321661094492346</v>
+        <v>0.9459303997699168</v>
       </c>
       <c r="C61">
         <v>0.9526112978601294</v>
@@ -2522,10 +2525,10 @@
         <v>0.9611362351611079</v>
       </c>
       <c r="E61">
-        <v>0.9459303997699168</v>
+        <v>0.9321661094492346</v>
       </c>
       <c r="F61">
-        <v>0.94974414876983</v>
+        <v>0.947541862318521</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2539,7 +2542,7 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>0.929878585254267</v>
+        <v>0.9727926373310326</v>
       </c>
       <c r="C62">
         <v>1.001721734852833</v>
@@ -2548,10 +2551,10 @@
         <v>0.9721594120972301</v>
       </c>
       <c r="E62">
-        <v>0.9727926373310326</v>
+        <v>0.929878585254267</v>
       </c>
       <c r="F62">
-        <v>0.9702062307295337</v>
+        <v>0.9633399823972513</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2565,7 +2568,7 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>0.9511701566074255</v>
+        <v>0.964260377720257</v>
       </c>
       <c r="C63">
         <v>0.9954906944330573</v>
@@ -2574,10 +2577,10 @@
         <v>0.9673544375353308</v>
       </c>
       <c r="E63">
-        <v>0.964260377720257</v>
+        <v>0.9511701566074255</v>
       </c>
       <c r="F63">
-        <v>0.9683652337112261</v>
+        <v>0.9662707983331731</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2591,7 +2594,7 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>0.934453633644202</v>
+        <v>0.9411369954942</v>
       </c>
       <c r="C64">
         <v>0.995244732311224</v>
@@ -2600,10 +2603,10 @@
         <v>0.9598643301300169</v>
       </c>
       <c r="E64">
-        <v>0.9411369954942</v>
+        <v>0.934453633644202</v>
       </c>
       <c r="F64">
-        <v>0.955379159668414</v>
+        <v>0.9543098217724144</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2617,7 +2620,7 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>0.9263593172620094</v>
+        <v>0.9526028185217142</v>
       </c>
       <c r="C65">
         <v>0.9926211363450029</v>
@@ -2626,10 +2629,10 @@
         <v>0.9667420388166573</v>
       </c>
       <c r="E65">
-        <v>0.9526028185217142</v>
+        <v>0.9263593172620094</v>
       </c>
       <c r="F65">
-        <v>0.9596104800348548</v>
+        <v>0.955411519833302</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2643,7 +2646,7 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.9106105929966566</v>
+        <v>0.9340235835490367</v>
       </c>
       <c r="C66">
         <v>0.9840944494547839</v>
@@ -2652,10 +2655,10 @@
         <v>0.9470981722253627</v>
       </c>
       <c r="E66">
-        <v>0.9340235835490367</v>
+        <v>0.9106105929966566</v>
       </c>
       <c r="F66">
-        <v>0.9428700366222967</v>
+        <v>0.9391239581339159</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2669,7 +2672,7 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.8857997536512404</v>
+        <v>0.9243600805291918</v>
       </c>
       <c r="C67">
         <v>0.9668771009264573</v>
@@ -2678,10 +2681,10 @@
         <v>0.9208121349161487</v>
       </c>
       <c r="E67">
-        <v>0.9243600805291918</v>
+        <v>0.8857997536512404</v>
       </c>
       <c r="F67">
-        <v>0.923861896375171</v>
+        <v>0.9176922440746988</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2695,7 +2698,7 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.8802569065634347</v>
+        <v>0.9329306873741733</v>
       </c>
       <c r="C68">
         <v>0.9604000983848487</v>
@@ -2704,10 +2707,10 @@
         <v>0.9284435651026947</v>
       </c>
       <c r="E68">
-        <v>0.9329306873741733</v>
+        <v>0.8802569065634347</v>
       </c>
       <c r="F68">
-        <v>0.9271651941585747</v>
+        <v>0.9187373892288565</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2721,7 +2724,7 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.8934541615344008</v>
+        <v>0.9379733486722271</v>
       </c>
       <c r="C69">
         <v>0.9643354923341805</v>
@@ -2730,10 +2733,10 @@
         <v>0.9416807989447901</v>
       </c>
       <c r="E69">
-        <v>0.9379733486722271</v>
+        <v>0.8934541615344008</v>
       </c>
       <c r="F69">
-        <v>0.9361101098712745</v>
+        <v>0.9289870399292224</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2747,7 +2750,7 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.8989090269224002</v>
+        <v>0.9307257214073436</v>
       </c>
       <c r="C70">
         <v>0.9583504140362384</v>
@@ -2756,10 +2759,10 @@
         <v>0.9394196344450726</v>
       </c>
       <c r="E70">
-        <v>0.9307257214073436</v>
+        <v>0.8989090269224002</v>
       </c>
       <c r="F70">
-        <v>0.9328820723942659</v>
+        <v>0.927791401276675</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2773,7 +2776,7 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.8948618687313038</v>
+        <v>0.9368037580289523</v>
       </c>
       <c r="C71">
         <v>0.9530212347298517</v>
@@ -2782,10 +2785,10 @@
         <v>0.9341906915394763</v>
       </c>
       <c r="E71">
-        <v>0.9368037580289523</v>
+        <v>0.8948618687313038</v>
       </c>
       <c r="F71">
-        <v>0.9315682959459779</v>
+        <v>0.9248575936583542</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2799,7 +2802,7 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.9245996832658806</v>
+        <v>0.9533122423545204</v>
       </c>
       <c r="C72">
         <v>0.9767975731737313</v>
@@ -2808,10 +2811,10 @@
         <v>0.9737139626907859</v>
       </c>
       <c r="E72">
-        <v>0.9533122423545204</v>
+        <v>0.9245996832658806</v>
       </c>
       <c r="F72">
-        <v>0.9591561812596852</v>
+        <v>0.9545621718055028</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2825,7 +2828,7 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.936037304240718</v>
+        <v>0.9631866551624966</v>
       </c>
       <c r="C73">
         <v>0.9663031893088465</v>
@@ -2834,10 +2837,10 @@
         <v>0.9767759562841531</v>
       </c>
       <c r="E73">
-        <v>0.9631866551624966</v>
+        <v>0.936037304240718</v>
       </c>
       <c r="F73">
-        <v>0.9635855456808204</v>
+        <v>0.9592416495333358</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2851,7 +2854,7 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.9349815238430406</v>
+        <v>0.9699165947656027</v>
       </c>
       <c r="C74">
         <v>0.9699106337624006</v>
@@ -2860,10 +2863,10 @@
         <v>0.9827115130959112</v>
       </c>
       <c r="E74">
-        <v>0.9699165947656027</v>
+        <v>0.9349815238430406</v>
       </c>
       <c r="F74">
-        <v>0.9681989423872246</v>
+        <v>0.9626093310396147</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2877,7 +2880,7 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.9373570297378144</v>
+        <v>0.9683060109289618</v>
       </c>
       <c r="C75">
         <v>0.9802410428793966</v>
@@ -2886,10 +2889,10 @@
         <v>0.9875164876578104</v>
       </c>
       <c r="E75">
-        <v>0.9683060109289618</v>
+        <v>0.9373570297378144</v>
       </c>
       <c r="F75">
-        <v>0.9714130968785608</v>
+        <v>0.9664612598879772</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2903,7 +2906,7 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>0.946067218018652</v>
+        <v>0.9826478765219059</v>
       </c>
       <c r="C76">
         <v>0.9842584242026727</v>
@@ -2912,10 +2915,10 @@
         <v>1.007961183342755</v>
       </c>
       <c r="E76">
-        <v>0.9826478765219059</v>
+        <v>0.946067218018652</v>
       </c>
       <c r="F76">
-        <v>0.9850563489329633</v>
+        <v>0.9792034435724427</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2929,7 +2932,7 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.9409642794298785</v>
+        <v>0.9628990509059535</v>
       </c>
       <c r="C77">
         <v>0.9868820201688939</v>
@@ -2938,10 +2941,10 @@
         <v>0.9979743734690033</v>
       </c>
       <c r="E77">
-        <v>0.9628990509059535</v>
+        <v>0.9409642794298785</v>
       </c>
       <c r="F77">
-        <v>0.9748221009755271</v>
+        <v>0.9713125375393552</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2955,7 +2958,7 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>0.9388527186345239</v>
+        <v>0.9706835394497172</v>
       </c>
       <c r="C78">
         <v>0.9753218004427318</v>
@@ -2964,10 +2967,10 @@
         <v>1.005511588468061</v>
       </c>
       <c r="E78">
-        <v>0.9706835394497172</v>
+        <v>0.9388527186345239</v>
       </c>
       <c r="F78">
-        <v>0.9775540604560005</v>
+        <v>0.9724611291255695</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2981,7 +2984,7 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>0.9543374978004574</v>
+        <v>0.9790432365065671</v>
       </c>
       <c r="C79">
         <v>0.995244732311224</v>
@@ -2990,10 +2993,10 @@
         <v>1.024495948746938</v>
       </c>
       <c r="E79">
-        <v>0.9790432365065671</v>
+        <v>0.9543374978004574</v>
       </c>
       <c r="F79">
-        <v>0.9925969102526426</v>
+        <v>0.988643992059665</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3007,7 +3010,7 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>0.9507302481083935</v>
+        <v>0.995398331895312</v>
       </c>
       <c r="C80">
         <v>1.00278757071411</v>
@@ -3016,10 +3019,10 @@
         <v>1.023412474090823</v>
       </c>
       <c r="E80">
-        <v>0.995398331895312</v>
+        <v>0.9507302481083935</v>
       </c>
       <c r="F80">
-        <v>0.9983055951752504</v>
+        <v>0.9911587017693434</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3033,7 +3036,7 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>0.9735175083582615</v>
+        <v>0.9877288850541657</v>
       </c>
       <c r="C81">
         <v>1.008198737394441</v>
@@ -3042,10 +3045,10 @@
         <v>1.029960429621255</v>
       </c>
       <c r="E81">
-        <v>0.9877288850541657</v>
+        <v>0.9735175083582615</v>
       </c>
       <c r="F81">
-        <v>1.002729235620848</v>
+        <v>1.000455415349504</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3059,7 +3062,7 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>0.9692943867675522</v>
+        <v>0.9597162304668776</v>
       </c>
       <c r="C82">
         <v>0.994260883823891</v>
@@ -3068,10 +3071,10 @@
         <v>1.009845487092519</v>
       </c>
       <c r="E82">
-        <v>0.9597162304668776</v>
+        <v>0.9692943867675522</v>
       </c>
       <c r="F82">
-        <v>0.9837597627951464</v>
+        <v>0.9852922678032543</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3085,7 +3088,7 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.9435157487242654</v>
+        <v>0.9463522193461796</v>
       </c>
       <c r="C83">
         <v>0.9480200049192425</v>
@@ -3094,10 +3097,10 @@
         <v>0.9785660448464294</v>
       </c>
       <c r="E83">
-        <v>0.9463522193461796</v>
+        <v>0.9435157487242654</v>
       </c>
       <c r="F83">
-        <v>0.9567841053029573</v>
+        <v>0.9563302700034511</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3111,7 +3114,7 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.9534576808023931</v>
+        <v>0.9288467069312627</v>
       </c>
       <c r="C84">
         <v>0.927687136181028</v>
@@ -3120,10 +3123,10 @@
         <v>0.9798850574712644</v>
       </c>
       <c r="E84">
-        <v>0.9288467069312627</v>
+        <v>0.9534576808023931</v>
       </c>
       <c r="F84">
-        <v>0.9496761011400157</v>
+        <v>0.9536138569593965</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3137,7 +3140,7 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.9448354742213619</v>
+        <v>0.9523727351164799</v>
       </c>
       <c r="C85">
         <v>0.9358858735754694</v>
@@ -3146,10 +3149,10 @@
         <v>0.9830412662521201</v>
       </c>
       <c r="E85">
-        <v>0.9523727351164799</v>
+        <v>0.9448354742213619</v>
       </c>
       <c r="F85">
-        <v>0.9584092495770994</v>
+        <v>0.9572032878338805</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3163,7 +3166,7 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.9505542847087806</v>
+        <v>0.9638002109097882</v>
       </c>
       <c r="C86">
         <v>0.9504796261375748</v>
@@ -3172,10 +3175,10 @@
         <v>0.9904371584699455</v>
       </c>
       <c r="E86">
-        <v>0.9638002109097882</v>
+        <v>0.9505542847087806</v>
       </c>
       <c r="F86">
-        <v>0.9680740967391925</v>
+        <v>0.9659547485470313</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3189,7 +3192,7 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.932254091149041</v>
+        <v>0.9615952449429586</v>
       </c>
       <c r="C87">
         <v>0.9430187751086332</v>
@@ -3198,10 +3201,10 @@
         <v>0.9793668739400794</v>
       </c>
       <c r="E87">
-        <v>0.9615952449429586</v>
+        <v>0.932254091149041</v>
       </c>
       <c r="F87">
-        <v>0.9593138864952071</v>
+        <v>0.9546193018881803</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3215,7 +3218,7 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.945451346120007</v>
+        <v>0.9779311667146007</v>
       </c>
       <c r="C88">
         <v>0.9664671640567353</v>
@@ -3224,10 +3227,10 @@
         <v>1.005417373280573</v>
       </c>
       <c r="E88">
-        <v>0.9779311667146007</v>
+        <v>0.945451346120007</v>
       </c>
       <c r="F88">
-        <v>0.9795311649284535</v>
+        <v>0.9743343936333185</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3241,7 +3244,7 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>0.9732535632588422</v>
+        <v>0.998868756590931</v>
       </c>
       <c r="C89">
         <v>0.9776174469131753</v>
@@ -3250,10 +3253,10 @@
         <v>1.036084416807989</v>
       </c>
       <c r="E89">
-        <v>0.998868756590931</v>
+        <v>0.9732535632588422</v>
       </c>
       <c r="F89">
-        <v>1.003182618950887</v>
+        <v>0.9990841880177526</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3267,7 +3270,7 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>0.9691184233679394</v>
+        <v>0.9968171795609243</v>
       </c>
       <c r="C90">
         <v>0.9699106337624006</v>
@@ -3276,10 +3279,10 @@
         <v>1.031891840964764</v>
       </c>
       <c r="E90">
-        <v>0.9968171795609243</v>
+        <v>0.9691184233679394</v>
       </c>
       <c r="F90">
-        <v>0.9991089164856349</v>
+        <v>0.9946771154947573</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3293,7 +3296,7 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>0.9848671476332922</v>
+        <v>0.9916211293260475</v>
       </c>
       <c r="C91">
         <v>0.9844223989505617</v>
@@ -3302,10 +3305,10 @@
         <v>1.037309214245336</v>
       </c>
       <c r="E91">
-        <v>0.9916211293260475</v>
+        <v>0.9848671476332922</v>
       </c>
       <c r="F91">
-        <v>1.004326236297812</v>
+        <v>1.003245599226971</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3319,7 +3322,7 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>0.9745732887559386</v>
+        <v>1.00274182724571</v>
       </c>
       <c r="C92">
         <v>0.9827826514716734</v>
@@ -3328,10 +3331,10 @@
         <v>1.041737328057283</v>
       </c>
       <c r="E92">
-        <v>1.00274182724571</v>
+        <v>0.9745732887559386</v>
       </c>
       <c r="F92">
-        <v>1.007428631088682</v>
+        <v>1.002921664930318</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3345,7 +3348,7 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>0.9789723737462608</v>
+        <v>0.9942095676349344</v>
       </c>
       <c r="C93">
         <v>0.9732721160941216</v>
@@ -3354,10 +3357,10 @@
         <v>1.031609195402299</v>
       </c>
       <c r="E93">
-        <v>0.9942095676349344</v>
+        <v>0.9789723737462608</v>
       </c>
       <c r="F93">
-        <v>1.000401755075152</v>
+        <v>0.9979638040529644</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3371,7 +3374,7 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>0.9773887031497448</v>
+        <v>1.001994056178698</v>
       </c>
       <c r="C94">
         <v>0.9822907272280068</v>
@@ -3380,10 +3383,10 @@
         <v>1.03872244205766</v>
       </c>
       <c r="E94">
-        <v>1.001994056178698</v>
+        <v>0.9773887031497448</v>
       </c>
       <c r="F94">
-        <v>1.006581947582216</v>
+        <v>1.002645091097583</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3397,7 +3400,7 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>0.9863628365300017</v>
+        <v>1.034550858019365</v>
       </c>
       <c r="C95">
         <v>1.014429777814217</v>
@@ -3406,10 +3409,10 @@
         <v>1.068353118522706</v>
       </c>
       <c r="E95">
-        <v>1.034550858019365</v>
+        <v>0.9863628365300017</v>
       </c>
       <c r="F95">
-        <v>1.034093056697401</v>
+        <v>1.026382973259103</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3423,7 +3426,7 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>0.9736934717578744</v>
+        <v>1.029278113316077</v>
       </c>
       <c r="C96">
         <v>1.002459621218332</v>
@@ -3432,10 +3435,10 @@
         <v>1.060109289617486</v>
       </c>
       <c r="E96">
-        <v>1.029278113316077</v>
+        <v>0.9736934717578744</v>
       </c>
       <c r="F96">
-        <v>1.025443868774031</v>
+        <v>1.016550326124719</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3449,7 +3452,7 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>0.9847791659334858</v>
+        <v>1.030524398427763</v>
       </c>
       <c r="C97">
         <v>1.044929080921538</v>
@@ -3458,10 +3461,10 @@
         <v>1.068447333710194</v>
       </c>
       <c r="E97">
-        <v>1.030524398427763</v>
+        <v>0.9847791659334858</v>
       </c>
       <c r="F97">
-        <v>1.03771107357088</v>
+        <v>1.030391836371796</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3475,7 +3478,7 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>0.9952489882104522</v>
+        <v>1.02354520180232</v>
       </c>
       <c r="C98">
         <v>1.034762646552431</v>
@@ -3484,10 +3487,10 @@
         <v>1.064396080648201</v>
       </c>
       <c r="E98">
-        <v>1.02354520180232</v>
+        <v>0.9952489882104522</v>
       </c>
       <c r="F98">
-        <v>1.034122601118362</v>
+        <v>1.029595206943663</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3501,7 +3504,7 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.035192679922576</v>
+        <v>1.024292972869332</v>
       </c>
       <c r="C99">
         <v>1.060506681970977</v>
@@ -3510,10 +3513,10 @@
         <v>1.089174674957603</v>
       </c>
       <c r="E99">
-        <v>1.024292972869332</v>
+        <v>1.035192679922576</v>
       </c>
       <c r="F99">
-        <v>1.053713215304793</v>
+        <v>1.055457168433312</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3527,7 +3530,7 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.029297906035544</v>
+        <v>1.031118780557952</v>
       </c>
       <c r="C100">
         <v>1.072230876445027</v>
@@ -3536,10 +3539,10 @@
         <v>1.093932541925759</v>
       </c>
       <c r="E100">
-        <v>1.031118780557952</v>
+        <v>1.029297906035544</v>
       </c>
       <c r="F100">
-        <v>1.058526829441322</v>
+        <v>1.058235489517737</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3553,7 +3556,7 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.013285236670772</v>
+        <v>1.022203048605119</v>
       </c>
       <c r="C101">
         <v>1.059604820857588</v>
@@ -3562,10 +3565,10 @@
         <v>1.078434143583946</v>
       </c>
       <c r="E101">
-        <v>1.022203048605119</v>
+        <v>1.013285236670772</v>
       </c>
       <c r="F101">
-        <v>1.045601583202213</v>
+        <v>1.044174733292717</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3579,7 +3582,7 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>0.9834594404363891</v>
+        <v>1.024235452018023</v>
       </c>
       <c r="C102">
         <v>1.043617282938427</v>
@@ -3588,10 +3591,10 @@
         <v>1.062794422460901</v>
       </c>
       <c r="E102">
-        <v>1.024235452018023</v>
+        <v>0.9834594404363891</v>
       </c>
       <c r="F102">
-        <v>1.033322901551764</v>
+        <v>1.026798739698702</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3605,7 +3608,7 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>0.9824916417385183</v>
+        <v>1.033649698015531</v>
       </c>
       <c r="C103">
         <v>1.066655735016807</v>
@@ -3614,10 +3617,10 @@
         <v>1.07023742227247</v>
       </c>
       <c r="E103">
-        <v>1.033649698015531</v>
+        <v>0.9824916417385183</v>
       </c>
       <c r="F103">
-        <v>1.042637803743446</v>
+        <v>1.034452514739124</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3631,7 +3634,7 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>0.9783565018476157</v>
+        <v>1.02902885629374</v>
       </c>
       <c r="C104">
         <v>1.09067803558252</v>
@@ -3640,10 +3643,10 @@
         <v>1.065950631241756</v>
       </c>
       <c r="E104">
-        <v>1.02902885629374</v>
+        <v>0.9783565018476157</v>
       </c>
       <c r="F104">
-        <v>1.043079102249837</v>
+        <v>1.034971525538457</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3657,7 +3660,7 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>0.9735175083582615</v>
+        <v>0.9966637906241014</v>
       </c>
       <c r="C105">
         <v>1.083955070919078</v>
@@ -3666,10 +3669,10 @@
         <v>1.059826644055022</v>
       </c>
       <c r="E105">
-        <v>0.9966637906241014</v>
+        <v>0.9735175083582615</v>
       </c>
       <c r="F105">
-        <v>1.028412181921258</v>
+        <v>1.024708776758724</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3683,7 +3686,7 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>0.9815238430406474</v>
+        <v>1.001879014476081</v>
       </c>
       <c r="C106">
         <v>1.097974911863573</v>
@@ -3692,10 +3695,10 @@
         <v>1.066091954022989</v>
       </c>
       <c r="E106">
-        <v>1.001879014476081</v>
+        <v>0.9815238430406474</v>
       </c>
       <c r="F106">
-        <v>1.035945207938411</v>
+        <v>1.032688380508741</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3709,7 +3712,7 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.027538272039416</v>
+        <v>1.008052919183204</v>
       </c>
       <c r="C107">
         <v>1.113388538165123</v>
@@ -3718,10 +3721,10 @@
         <v>1.089268890145092</v>
       </c>
       <c r="E107">
-        <v>1.008052919183204</v>
+        <v>1.027538272039416</v>
       </c>
       <c r="F107">
-        <v>1.056073754813109</v>
+        <v>1.059191411270103</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3735,7 +3738,7 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.050589477388703</v>
+        <v>0.9877480586712685</v>
       </c>
       <c r="C108">
         <v>1.095351315897352</v>
@@ -3744,10 +3747,10 @@
         <v>1.089221782551347</v>
       </c>
       <c r="E108">
-        <v>0.9877480586712685</v>
+        <v>1.050589477388703</v>
       </c>
       <c r="F108">
-        <v>1.050209982462093</v>
+        <v>1.060264609456882</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3761,7 +3764,7 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.039943691712124</v>
+        <v>0.9800977854472247</v>
       </c>
       <c r="C109">
         <v>1.110027055833402</v>
@@ -3770,10 +3773,10 @@
         <v>1.081401921989825</v>
       </c>
       <c r="E109">
-        <v>0.9800977854472247</v>
+        <v>1.039943691712124</v>
       </c>
       <c r="F109">
-        <v>1.045789930536966</v>
+        <v>1.05536527553935</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3787,7 +3790,7 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>0.9936653176139362</v>
+        <v>0.972313296903461</v>
       </c>
       <c r="C110">
         <v>1.074936459785193</v>
@@ -3796,10 +3799,10 @@
         <v>1.040842283776145</v>
       </c>
       <c r="E110">
-        <v>0.972313296903461</v>
+        <v>0.9936653176139362</v>
       </c>
       <c r="F110">
-        <v>1.016003643782122</v>
+        <v>1.019419967095798</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3813,7 +3816,7 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.014956888967095</v>
+        <v>0.9761288467069313</v>
       </c>
       <c r="C111">
         <v>1.162662949905714</v>
@@ -3822,10 +3825,10 @@
         <v>1.057047296024119</v>
       </c>
       <c r="E111">
-        <v>0.9761288467069313</v>
+        <v>1.014956888967095</v>
       </c>
       <c r="F111">
-        <v>1.041143499709624</v>
+        <v>1.04735598647125</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3839,7 +3842,7 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.038184057715995</v>
+        <v>0.9630524398427764</v>
       </c>
       <c r="C112">
         <v>1.171435598917767</v>
@@ -3848,10 +3851,10 @@
         <v>1.070755605803656</v>
       </c>
       <c r="E112">
-        <v>0.9630524398427764</v>
+        <v>1.038184057715995</v>
       </c>
       <c r="F112">
-        <v>1.046791996691062</v>
+        <v>1.058813055550777</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3865,7 +3868,7 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.070649304944572</v>
+        <v>0.9528137283098458</v>
       </c>
       <c r="C113">
         <v>1.177830614085431</v>
@@ -3874,10 +3877,10 @@
         <v>1.082956472583381</v>
       </c>
       <c r="E113">
-        <v>0.9528137283098458</v>
+        <v>1.070649304944572</v>
       </c>
       <c r="F113">
-        <v>1.054045752529865</v>
+        <v>1.072899444791421</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3891,7 +3894,7 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.07364068273799</v>
+        <v>0.9582782091841626</v>
       </c>
       <c r="C114">
         <v>1.176026891858654</v>
@@ -3900,10 +3903,10 @@
         <v>1.089975504051253</v>
       </c>
       <c r="E114">
-        <v>0.9582782091841626</v>
+        <v>1.07364068273799</v>
       </c>
       <c r="F114">
-        <v>1.058367213049117</v>
+        <v>1.076825208817729</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3917,7 +3920,7 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.088509590005279</v>
+        <v>0.9451442814686992</v>
       </c>
       <c r="C115">
         <v>1.231778306140854</v>
@@ -3926,10 +3929,10 @@
         <v>1.102270586018466</v>
       </c>
       <c r="E115">
-        <v>0.9451442814686992</v>
+        <v>1.088509590005279</v>
       </c>
       <c r="F115">
-        <v>1.070095848615607</v>
+        <v>1.09303429798146</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3943,7 +3946,7 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.123790251627661</v>
+        <v>0.9467932125395456</v>
       </c>
       <c r="C116">
         <v>1.212265311142084</v>
@@ -3952,10 +3955,10 @@
         <v>1.101611079706049</v>
       </c>
       <c r="E116">
-        <v>0.9467932125395456</v>
+        <v>1.123790251627661</v>
       </c>
       <c r="F116">
-        <v>1.073102862111903</v>
+        <v>1.101422388366001</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3969,7 +3972,7 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.129773007214499</v>
+        <v>0.9647397181478287</v>
       </c>
       <c r="C117">
         <v>1.227678937443634</v>
@@ -3978,10 +3981,10 @@
         <v>1.124034294328246</v>
       </c>
       <c r="E117">
-        <v>0.9647397181478287</v>
+        <v>1.129773007214499</v>
       </c>
       <c r="F117">
-        <v>1.090062254708987</v>
+        <v>1.116467580959654</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3995,25 +3998,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.129773007214499</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="C118">
-        <v>1.227678937443634</v>
+        <v>1.248913667295237</v>
       </c>
       <c r="D118">
-        <v>1.124034294328246</v>
+        <v>1.13496325607688</v>
       </c>
       <c r="E118">
-        <v>0.9647397181478287</v>
+        <v>1.144377969382368</v>
       </c>
       <c r="F118">
-        <v>1.090062254708987</v>
+        <v>1.131085215733603</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="C119">
+        <v>1.23579568746413</v>
+      </c>
+      <c r="D119">
+        <v>1.133031844733371</v>
+      </c>
+      <c r="E119">
+        <v>1.176139363012493</v>
+      </c>
+      <c r="F119">
+        <v>1.136260936166098</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="C120">
+        <v>1.295564483069607</v>
+      </c>
+      <c r="D120">
+        <v>1.147635198794046</v>
+      </c>
+      <c r="E120">
+        <v>1.190920288579975</v>
+      </c>
+      <c r="F120">
+        <v>1.15626186235225</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="C121">
+        <v>1.264245306222842</v>
+      </c>
+      <c r="D121">
+        <v>1.144950065950631</v>
+      </c>
+      <c r="E121">
+        <v>1.153704029561851</v>
+      </c>
+      <c r="F121">
+        <v>1.138995720579207</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="C122">
+        <v>1.24358448798885</v>
+      </c>
+      <c r="D122">
+        <v>1.101705294893537</v>
+      </c>
+      <c r="E122">
+        <v>1.138571177195143</v>
+      </c>
+      <c r="F122">
+        <v>1.111394683686493</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="C123">
+        <v>1.296466344182996</v>
+      </c>
+      <c r="D123">
+        <v>1.107499528924063</v>
+      </c>
+      <c r="E123">
+        <v>1.157311279253915</v>
+      </c>
+      <c r="F123">
+        <v>1.127529151795979</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="C124">
+        <v>1.269656472903173</v>
+      </c>
+      <c r="D124">
+        <v>1.097936687394008</v>
+      </c>
+      <c r="E124">
+        <v>1.134875945803273</v>
+      </c>
+      <c r="F124">
+        <v>1.111590678178093</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="C125">
+        <v>1.307042715421825</v>
+      </c>
+      <c r="D125">
+        <v>1.129875635952516</v>
+      </c>
+      <c r="E125">
+        <v>1.195759282069329</v>
+      </c>
+      <c r="F125">
+        <v>1.149099215783568</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="C126">
+        <v>1.345740755923588</v>
+      </c>
+      <c r="D126">
+        <v>1.136847559826644</v>
+      </c>
+      <c r="E126">
+        <v>1.207724793243006</v>
+      </c>
+      <c r="F126">
+        <v>1.159032786996794</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="C127">
+        <v>1.325243912437485</v>
+      </c>
+      <c r="D127">
+        <v>1.135528547201809</v>
+      </c>
+      <c r="E127">
+        <v>1.215731127925391</v>
+      </c>
+      <c r="F127">
+        <v>1.15484765258567</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4125,18 +4362,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4168,28 +4405,25 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
@@ -4198,39 +4432,36 @@
         <v>62</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>48.82</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>4.98</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>15.45</v>
-      </c>
-      <c r="M2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
@@ -4242,36 +4473,33 @@
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>81.61</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K3">
-        <v>8.33</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L3">
-        <v>20.06</v>
-      </c>
-      <c r="M3">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -4283,36 +4511,33 @@
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>43.54</v>
+        <v>8.285799980163574</v>
       </c>
       <c r="K4">
-        <v>8.15</v>
+        <v>43.79740142822266</v>
       </c>
       <c r="L4">
-        <v>25.33</v>
-      </c>
-      <c r="M4">
-        <v>29.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>29.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -4321,19 +4546,16 @@
         <v>65</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>41.16</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K5">
-        <v>9.26</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L5">
-        <v>13.51</v>
-      </c>
-      <c r="M5">
-        <v>21.13</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -4377,13 +4599,13 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4397,13 +4619,13 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4417,13 +4639,13 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4437,13 +4659,13 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4454,16 +4676,16 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4474,16 +4696,16 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4494,16 +4716,16 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4514,16 +4736,16 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4534,16 +4756,16 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4554,16 +4776,16 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4574,16 +4796,16 @@
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4594,16 +4816,16 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4614,16 +4836,16 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4634,16 +4856,16 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4654,16 +4876,16 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4674,16 +4896,16 @@
         <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4694,16 +4916,16 @@
         <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4714,16 +4936,16 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4734,16 +4956,16 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4754,16 +4976,16 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4781,10 +5003,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4792,87 +5014,87 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
